--- a/data/case1/14/Plm2_2.xlsx
+++ b/data/case1/14/Plm2_2.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.43187965612131052</v>
+        <v>-0.29884856315290165</v>
       </c>
       <c r="B1" s="0">
-        <v>0.43037033853914863</v>
+        <v>0.29817188070433076</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.28904693290813732</v>
+        <v>-0.19289295398641215</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28540377011499274</v>
+        <v>0.19134160112085397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.18244865242733255</v>
+        <v>-0.088395959210014752</v>
       </c>
       <c r="B3" s="0">
-        <v>0.18124929186040717</v>
+        <v>0.088121052006904677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.16924929199368499</v>
+        <v>-0.076121052090261543</v>
       </c>
       <c r="B4" s="0">
-        <v>0.1681556121071921</v>
+        <v>0.075905969862031242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.16215561256513578</v>
+        <v>-0.14429477392719736</v>
       </c>
       <c r="B5" s="0">
-        <v>0.15994728763191013</v>
+        <v>0.14267708450299654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.058948451591037454</v>
+        <v>-0.10941671732077118</v>
       </c>
       <c r="B6" s="0">
-        <v>0.058899477682571977</v>
+        <v>0.10923475393768056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.038899478249852848</v>
+        <v>-0.089234754326978916</v>
       </c>
       <c r="B7" s="0">
-        <v>0.038822893956185212</v>
+        <v>0.088775749813247984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.01882289452653918</v>
+        <v>-0.068775750207324293</v>
       </c>
       <c r="B8" s="0">
-        <v>0.018798312727040134</v>
+        <v>0.068378874490827357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.012798313207754042</v>
+        <v>-0.062378874827482278</v>
       </c>
       <c r="B9" s="0">
-        <v>0.012786548525291153</v>
+        <v>0.062040904471547975</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0067865490074581203</v>
+        <v>-0.056040904813173142</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0067879347023165337</v>
+        <v>0.05599213864628183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0022879351746283305</v>
+        <v>-0.051492138981888758</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0022882324457569325</v>
+        <v>0.051410300061899505</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.024799291269473667</v>
+        <v>-0.045410300405622106</v>
       </c>
       <c r="B12" s="0">
-        <v>0.024725781493885712</v>
+        <v>0.045157161924044953</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.018725781980111655</v>
+        <v>-0.03915716227318633</v>
       </c>
       <c r="B13" s="0">
-        <v>0.018711128562947543</v>
+        <v>0.03908821468193846</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.006711129089620016</v>
+        <v>-0.027088215059818843</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0067099618730965815</v>
+        <v>0.027054849069315878</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00070996236075870911</v>
+        <v>-0.021054849421450861</v>
       </c>
       <c r="B15" s="0">
-        <v>0.00070995266558515624</v>
+        <v>0.021028586414063355</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.024472485569244418</v>
+        <v>-0.015028586767426466</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.024552892999463172</v>
+        <v>0.015004623271638096</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090043020823369346</v>
+        <v>-0.009004623626594821</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999994960567875</v>
+        <v>0.0089999996311158625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.081980950816934239</v>
+        <v>-0.036111826212465559</v>
       </c>
       <c r="B18" s="0">
-        <v>0.081884329588003624</v>
+        <v>0.036096928185106236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027097052580366654</v>
+        <v>-0.027096928501912476</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013576014985663</v>
+        <v>0.027013793592558955</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013576468140613</v>
+        <v>-0.018013793912317055</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004265307935086</v>
+        <v>0.018004281202562922</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042657617672717</v>
+        <v>-0.0090042815227997508</v>
       </c>
       <c r="B21" s="0">
-        <v>0.008999999545615367</v>
+        <v>0.0089999996794096759</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093955118150981676</v>
+        <v>-0.09394564223508084</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093639723269589581</v>
+        <v>0.093633155160585346</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084639723737357286</v>
+        <v>-0.084633155487926714</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127824918667216</v>
+        <v>0.084126583769045027</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127825610855929</v>
+        <v>-0.042126584250611998</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999303715008</v>
+        <v>0.041999999515674347</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094998836514950113</v>
+        <v>-0.027260367506841021</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094749122107348427</v>
+        <v>0.027228500980669423</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088749122583422491</v>
+        <v>-0.074414272494124134</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088426665849965502</v>
+        <v>0.074220045505207111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.08242666632903628</v>
+        <v>-0.068220045831815845</v>
       </c>
       <c r="B27" s="0">
-        <v>0.08132123827218507</v>
+        <v>0.067572259629001152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075321238762437126</v>
+        <v>-0.061572259961524267</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074555326165242519</v>
+        <v>0.061136938332380986</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062555326702586456</v>
+        <v>-0.049136938695898635</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062175807718618969</v>
+        <v>0.048938766312941695</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042175808312442165</v>
+        <v>-0.028938766714436515</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042020146143931569</v>
+        <v>0.028882411442479494</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0270201467104485</v>
+        <v>-0.059659786189937947</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000638847539449</v>
+        <v>0.059531401270005446</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006394544416253</v>
+        <v>-0.038531401679893662</v>
       </c>
       <c r="B32" s="0">
-        <v>0.005999999491283603</v>
+        <v>0.038459639069819751</v>
       </c>
     </row>
   </sheetData>
